--- a/Web Sc/CSGOstash/Try2/Norse TRadup (version 1).xlsx
+++ b/Web Sc/CSGOstash/Try2/Norse TRadup (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\Web Sc\CSGOstash\Try2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D7B3C9-83E1-4D47-9F17-1BD881C35125}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF85374-C30B-456A-8303-BD7EC7C76B2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="The+Norse+Collection_guns" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Not Bought Floats Needed</t>
+  </si>
+  <si>
+    <t>FT Floats below</t>
   </si>
 </sst>
 </file>
@@ -2029,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48D981F-6863-458A-A835-6DF4117112F2}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2577,10 +2580,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED947A22-97AD-450E-9C0A-3AAB22D5E994}">
-  <dimension ref="B5:I13"/>
+  <dimension ref="B5:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,7 +2591,7 @@
     <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>47</v>
       </c>
@@ -2609,80 +2612,166 @@
         <v>0.214285714285714</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="8">
-        <v>0.2039</v>
+        <f>B16</f>
+        <v>0.31490000000000001</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="8">
-        <v>0.18808804452419001</v>
-      </c>
+      <c r="F6" s="8"/>
       <c r="H6" t="s">
         <v>61</v>
       </c>
       <c r="I6">
         <f>AVERAGE(F6:F13,C6:C7)</f>
-        <v>0.18643887560897443</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.23580000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="14">
-        <v>0.1981</v>
+        <f>B17</f>
+        <v>0.15670000000000001</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="11">
-        <v>0.16821281611919001</v>
-      </c>
+      <c r="F7" s="11"/>
       <c r="H7" t="s">
         <v>66</v>
       </c>
       <c r="I7">
         <f>COUNTA(C6:C7,F6:F13)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E8" s="9"/>
-      <c r="F8" s="11">
-        <v>0.1509752124548</v>
-      </c>
+      <c r="F8" s="11"/>
       <c r="H8" t="s">
         <v>67</v>
       </c>
       <c r="I8">
         <f>(I5*10-I7*I6)/(10-I7)</f>
-        <v>0.46490726237637015</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.20890714285714251</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E9" s="9"/>
-      <c r="F9" s="11">
-        <v>0.1941244751215</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E10" s="9"/>
-      <c r="F10" s="11">
-        <v>0.19420756399632</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E11" s="9"/>
-      <c r="F11" s="11">
-        <v>0.21031023561953999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E12" s="9"/>
-      <c r="F12" s="11">
-        <v>0.17003153264522999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="12"/>
       <c r="F13" s="14"/>
+      <c r="H13">
+        <f>0.76*2+0.1*8</f>
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="J13">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K13">
+        <v>6.5</v>
+      </c>
+      <c r="L13">
+        <f>K13*J13</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="N13">
+        <f>L13+L14</f>
+        <v>2.5466666666666664</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L14">
+        <f>K14*J14</f>
+        <v>0.37999999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.31490000000000001</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(B16:B17)</f>
+        <v>0.23580000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.15670000000000001</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(B19:B20)</f>
+        <v>0.20834999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.1913</v>
+      </c>
+      <c r="K20">
+        <f>8*4*0.1</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.21929999999999999</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(B22:B23)</f>
+        <v>0.22144999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.22359999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.2208</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(B25:B26)</f>
+        <v>0.21315000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.20549999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Web Sc/CSGOstash/Try2/Norse TRadup (version 1).xlsx
+++ b/Web Sc/CSGOstash/Try2/Norse TRadup (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\Web Sc\CSGOstash\Try2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF85374-C30B-456A-8303-BD7EC7C76B2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E16874F-90CC-4F10-874C-ABE502BAAE76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Buys v2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2583,7 +2584,7 @@
   <dimension ref="B5:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,7 +2717,7 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.15670000000000001</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.22539999999999999</v>
       </c>
@@ -2736,16 +2737,12 @@
         <v>0.20834999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.1913</v>
       </c>
-      <c r="K20">
-        <f>8*4*0.1</f>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.21929999999999999</v>
       </c>
@@ -2754,12 +2751,12 @@
         <v>0.22144999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.22359999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.2208</v>
       </c>
@@ -2768,7 +2765,7 @@
         <v>0.21315000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.20549999999999999</v>
       </c>
